--- a/conf/conf.xlsx
+++ b/conf/conf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pg-automatizacion\scraping_descarga_olt\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF58150-49AA-4E68-A188-86C2A7847D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DE8989-C245-4D59-B2BF-C2184DE832FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="3945" windowWidth="17700" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Configuraciones necesaria para iniciar la descarga "CITIBANK"</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Usuario</t>
   </si>
@@ -43,22 +40,13 @@
     <t>ZTE_DESCARGAS</t>
   </si>
   <si>
-    <t>ROSA</t>
-  </si>
-  <si>
-    <t>OLIVOS</t>
-  </si>
-  <si>
-    <t>RETABLO</t>
-  </si>
-  <si>
     <t>CHIMBOTE</t>
   </si>
   <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>C:\Users\Gonzalo PL\OneDrive - PangeaCO S.A.C\PANGEACO\TIMBRADO_DATA\FEBRERO</t>
+    <t>Configuraciones necesaria para iniciar la descargas</t>
+  </si>
+  <si>
+    <t>D:\pg-automatizacion\scraping_descarga_olt\descargados</t>
   </si>
 </sst>
 </file>
@@ -472,7 +460,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,62 +480,50 @@
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="7">
         <v>12345678</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
         <v>12345679</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
